--- a/zadania.xlsx
+++ b/zadania.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Arkusz1!$A$1:$AO$57</definedName>
-    <definedName name="st_vat">Arkusz1!$J$14</definedName>
+    <definedName name="st_vat">Arkusz1!$M$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,9 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Duplo</t>
+  </si>
+  <si>
+    <t>wzgledne</t>
+  </si>
+  <si>
+    <t>bezwzgledne</t>
+  </si>
+  <si>
+    <t>mieszane wiersze</t>
+  </si>
+  <si>
+    <t>mieszane kolumny</t>
   </si>
 </sst>
 </file>
@@ -357,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +380,7 @@
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -383,7 +395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -401,8 +413,18 @@
         <f>SUM(B2:C2)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="str">
+        <f>LEFT(M2)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -417,7 +439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -431,8 +453,15 @@
         <f>SUM($A$6:$B$6)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="O5">
+        <f>100*st_vat</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -450,8 +479,11 @@
         <f>SUM($A$6:$B$6)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -466,7 +498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -481,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -499,8 +531,11 @@
         <f>B$10+C$10</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -514,15 +549,8 @@
         <f>A$10+B$10</f>
         <v>9</v>
       </c>
-      <c r="J11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" t="str">
-        <f>LEFT(J11)</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -537,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -555,15 +583,11 @@
         <f>B$14+$B14</f>
         <v>10</v>
       </c>
-      <c r="J14" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="L14">
-        <f>100*st_vat</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
